--- a/biology/Botanique/Glochide/Glochide.xlsx
+++ b/biology/Botanique/Glochide/Glochide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un glochide (nom masculin) est un coussinet d'aiguillons barbelés, fins comme des soies, généralement millimétriques, émergeant de l'aréole des Cactaceae.
 Se détachant au moindre contact, le glochide est aussi un irritant pour la peau.
@@ -513,7 +525,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il semble que les glochides résultent de l'évolution adaptative ; c'est un des moyens de défense des plantes qui en portent (ou leur graines parfois), contre un certain nombre de prédateurs herbivores. On trouve ainsi des glochides sur des fruits comme ceux du figuier de Barbarie, qui doivent de ce fait être soigneusement pelés avant d'être consommés. On en trouve souvent sur différents organes des Cactaceae et notamment dans les genres Mammillarias et les Opuntias de petite taille (tels qu'Opuntia microdasys).
 Sur ces plantes, les glochides ont remplacé les épines, ou parfois s'y ajoutent pour améliorer encore la protection.
